--- a/data/trans_camb/P7A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7A_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,95</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 8,51</t>
+          <t>-12,04; 10,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 4,83</t>
+          <t>-13,94; 7,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 3,54</t>
+          <t>-16,5; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 6,24</t>
+          <t>-11,71; 12,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 9,17</t>
+          <t>-9,69; 9,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 14,07</t>
+          <t>-9,82; 9,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 4,28</t>
+          <t>-8,85; 10,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 5,11</t>
+          <t>5,99; 26,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 6,91</t>
+          <t>-7,7; 6,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 5,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; 4,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 16,49</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>-18,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 24,75</t>
+          <t>-31,33; 35,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 13,8</t>
+          <t>-36,29; 24,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 10,09</t>
+          <t>-43,35; 16,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 18,91</t>
+          <t>-30,83; 44,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 28,61</t>
+          <t>-25,31; 34,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 42,18</t>
+          <t>-25,7; 34,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 12,76</t>
+          <t>-23,73; 39,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 14,59</t>
+          <t>14,16; 94,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 19,59</t>
+          <t>-20,98; 22,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,01; 18,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,03; 16,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 55,13</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 7,37</t>
+          <t>-11,56; 11,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 6,95</t>
+          <t>-12,11; 10,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 5,59</t>
+          <t>-13,7; 8,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 6,98</t>
+          <t>0,6; 23,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 5,86</t>
+          <t>-7,85; 10,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 7,27</t>
+          <t>-10,18; 8,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,61</t>
+          <t>-8,06; 11,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 4,35</t>
+          <t>-4,55; 20,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 4,62</t>
+          <t>-6,36; 8,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 6,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 6,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 18,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,27%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 25,91</t>
+          <t>-32,99; 49,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 26,35</t>
+          <t>-33,8; 47,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 21,67</t>
+          <t>-39,16; 37,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 27,42</t>
+          <t>0,31; 103,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 23,52</t>
+          <t>-30,71; 62,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 29,65</t>
+          <t>-36,94; 48,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 17,07</t>
+          <t>-31,0; 64,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 15,86</t>
+          <t>-18,95; 119,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 17,58</t>
+          <t>-22,14; 39,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; 32,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,23; 33,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 83,94</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 18,75</t>
+          <t>-29,02; 26,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 19,72</t>
+          <t>-27,12; 27,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 18,31</t>
+          <t>-28,69; 26,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 17,1</t>
+          <t>-25,02; 35,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 14,52</t>
+          <t>-22,77; 22,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 12,71</t>
+          <t>-24,48; 19,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 13,41</t>
+          <t>-25,67; 18,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 11,95</t>
+          <t>-22,92; 24,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 9,85</t>
+          <t>-18,44; 19,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; 17,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 16,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-15,94; 22,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-11,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>-0,32%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,67%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 65,79</t>
+          <t>-64,8; 164,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 72,33</t>
+          <t>-63,94; 165,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 62,72</t>
+          <t>-66,42; 161,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 57,96</t>
+          <t>-54,5; 210,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 51,14</t>
+          <t>-50,07; 89,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 43,93</t>
+          <t>-53,69; 80,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 41,98</t>
+          <t>-56,13; 79,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 39,85</t>
+          <t>-50,0; 102,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 30,01</t>
+          <t>-44,03; 81,6</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-45,92; 76,24</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-50,21; 71,89</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-36,65; 98,58</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,05</t>
+          <t>-9,37; 6,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 4,14</t>
+          <t>-10,47; 5,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,0</t>
+          <t>-12,67; 3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,64</t>
+          <t>-3,13; 13,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,75</t>
+          <t>-5,97; 6,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 9,01</t>
+          <t>-6,64; 6,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,7</t>
+          <t>-5,47; 7,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,59</t>
+          <t>2,84; 17,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,28</t>
+          <t>-5,1; 4,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 3,37</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 3,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 14,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-13,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 15,7</t>
+          <t>-27,18; 24,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 12,74</t>
+          <t>-29,93; 19,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 9,34</t>
+          <t>-36,5; 11,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 14,98</t>
+          <t>-9,0; 48,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 18,63</t>
+          <t>-17,93; 27,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 28,53</t>
+          <t>-20,88; 22,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 8,25</t>
+          <t>-17,23; 27,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 8,03</t>
+          <t>9,02; 67,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 10,1</t>
+          <t>-15,96; 17,28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 12,76</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 11,24</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 50,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
